--- a/my_test_data_30.xlsx
+++ b/my_test_data_30.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10905"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yangfan/Documents/GitHub/Master-Thesis/ACO-VRPTW-test/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yangfan/Documents/GitHub/Saving-Heuristic-VRPTW/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95E09626-0A2C-494E-A741-4FBFA83A0356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97A2E69F-70FD-9E46-A648-A730BF2D3F7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="500" windowWidth="32540" windowHeight="20500" xr2:uid="{E8927419-9073-024B-8BD9-2CF71BB67D1D}"/>
+    <workbookView xWindow="1100" yWindow="500" windowWidth="32540" windowHeight="20500" xr2:uid="{E8927419-9073-024B-8BD9-2CF71BB67D1D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -381,10 +381,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4448AA2B-A334-F140-BCA2-65BDFBD942F9}">
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <selection activeCell="A39" sqref="A32:G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1102,190 +1102,6 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32">
-        <v>50</v>
-      </c>
-      <c r="C32">
-        <v>50</v>
-      </c>
-      <c r="D32">
-        <v>8</v>
-      </c>
-      <c r="E32">
-        <v>18</v>
-      </c>
-      <c r="F32">
-        <v>0.5</v>
-      </c>
-      <c r="G32">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33">
-        <v>100</v>
-      </c>
-      <c r="C33">
-        <v>50</v>
-      </c>
-      <c r="D33">
-        <v>8</v>
-      </c>
-      <c r="E33">
-        <v>18</v>
-      </c>
-      <c r="F33">
-        <v>0.5</v>
-      </c>
-      <c r="G33">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34">
-        <v>150</v>
-      </c>
-      <c r="C34">
-        <v>50</v>
-      </c>
-      <c r="D34">
-        <v>8</v>
-      </c>
-      <c r="E34">
-        <v>18</v>
-      </c>
-      <c r="F34">
-        <v>0.5</v>
-      </c>
-      <c r="G34">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35">
-        <v>50</v>
-      </c>
-      <c r="C35">
-        <v>100</v>
-      </c>
-      <c r="D35">
-        <v>8</v>
-      </c>
-      <c r="E35">
-        <v>18</v>
-      </c>
-      <c r="F35">
-        <v>0.5</v>
-      </c>
-      <c r="G35">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36">
-        <v>50</v>
-      </c>
-      <c r="C36">
-        <v>150</v>
-      </c>
-      <c r="D36">
-        <v>8</v>
-      </c>
-      <c r="E36">
-        <v>18</v>
-      </c>
-      <c r="F36">
-        <v>0.5</v>
-      </c>
-      <c r="G36">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37">
-        <v>150</v>
-      </c>
-      <c r="C37">
-        <v>100</v>
-      </c>
-      <c r="D37">
-        <v>8</v>
-      </c>
-      <c r="E37">
-        <v>18</v>
-      </c>
-      <c r="F37">
-        <v>0.5</v>
-      </c>
-      <c r="G37">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>37</v>
-      </c>
-      <c r="B38">
-        <v>150</v>
-      </c>
-      <c r="C38">
-        <v>150</v>
-      </c>
-      <c r="D38">
-        <v>8</v>
-      </c>
-      <c r="E38">
-        <v>18</v>
-      </c>
-      <c r="F38">
-        <v>0.5</v>
-      </c>
-      <c r="G38">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="B39">
-        <v>100</v>
-      </c>
-      <c r="C39">
-        <v>150</v>
-      </c>
-      <c r="D39">
-        <v>8</v>
-      </c>
-      <c r="E39">
-        <v>18</v>
-      </c>
-      <c r="F39">
-        <v>0.5</v>
-      </c>
-      <c r="G39">
-        <v>-2</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/my_test_data_30.xlsx
+++ b/my_test_data_30.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10905"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yangfan/Documents/GitHub/Saving-Heuristic-VRPTW/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yangfan/ACO-VRPTW_test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97A2E69F-70FD-9E46-A648-A730BF2D3F7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95FF5794-0BEA-A341-A9C5-06F56368C05D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="500" windowWidth="32540" windowHeight="20500" xr2:uid="{E8927419-9073-024B-8BD9-2CF71BB67D1D}"/>
+    <workbookView xWindow="-30560" yWindow="2540" windowWidth="28040" windowHeight="17440" xr2:uid="{E8927419-9073-024B-8BD9-2CF71BB67D1D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -381,10 +381,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4448AA2B-A334-F140-BCA2-65BDFBD942F9}">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A39" sqref="A32:G39"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -449,7 +449,7 @@
         <v>8</v>
       </c>
       <c r="E3">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F3">
         <v>0.5</v>
@@ -469,10 +469,10 @@
         <v>110</v>
       </c>
       <c r="D4">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E4">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F4">
         <v>0.5</v>
@@ -492,7 +492,7 @@
         <v>20</v>
       </c>
       <c r="D5">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E5">
         <v>18</v>
@@ -501,7 +501,7 @@
         <v>0.5</v>
       </c>
       <c r="G5">
-        <v>-1</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -515,10 +515,10 @@
         <v>80</v>
       </c>
       <c r="D6">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E6">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F6">
         <v>0.5</v>
@@ -538,10 +538,10 @@
         <v>20</v>
       </c>
       <c r="D7">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E7">
-        <v>18</v>
+        <v>12.5</v>
       </c>
       <c r="F7">
         <v>0.5</v>
@@ -564,13 +564,13 @@
         <v>8</v>
       </c>
       <c r="E8">
-        <v>18</v>
+        <v>8.5</v>
       </c>
       <c r="F8">
         <v>0.5</v>
       </c>
       <c r="G8">
-        <v>-1</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -584,16 +584,16 @@
         <v>70</v>
       </c>
       <c r="D9">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E9">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="F9">
         <v>0.5</v>
       </c>
       <c r="G9">
-        <v>-1</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -607,10 +607,10 @@
         <v>170</v>
       </c>
       <c r="D10">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E10">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F10">
         <v>0.5</v>
@@ -630,16 +630,16 @@
         <v>80</v>
       </c>
       <c r="D11">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E11">
-        <v>18</v>
+        <v>14.5</v>
       </c>
       <c r="F11">
         <v>0.5</v>
       </c>
       <c r="G11">
-        <v>-1</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -656,7 +656,7 @@
         <v>8</v>
       </c>
       <c r="E12">
-        <v>18</v>
+        <v>8.5</v>
       </c>
       <c r="F12">
         <v>0.5</v>
@@ -679,13 +679,13 @@
         <v>8</v>
       </c>
       <c r="E13">
-        <v>18</v>
+        <v>8.5</v>
       </c>
       <c r="F13">
         <v>0.5</v>
       </c>
       <c r="G13">
-        <v>-1</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -699,10 +699,10 @@
         <v>190</v>
       </c>
       <c r="D14">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="E14">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="F14">
         <v>0.5</v>
@@ -722,10 +722,10 @@
         <v>5</v>
       </c>
       <c r="D15">
-        <v>8</v>
+        <v>11.5</v>
       </c>
       <c r="E15">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F15">
         <v>0.5</v>
@@ -745,16 +745,16 @@
         <v>15</v>
       </c>
       <c r="D16">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E16">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F16">
         <v>0.5</v>
       </c>
       <c r="G16">
-        <v>-1</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -768,16 +768,16 @@
         <v>20</v>
       </c>
       <c r="D17">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E17">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F17">
         <v>0.5</v>
       </c>
       <c r="G17">
-        <v>-1</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -791,10 +791,10 @@
         <v>60</v>
       </c>
       <c r="D18">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E18">
-        <v>18</v>
+        <v>10.5</v>
       </c>
       <c r="F18">
         <v>0.5</v>
@@ -814,10 +814,10 @@
         <v>130</v>
       </c>
       <c r="D19">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E19">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F19">
         <v>0.5</v>
@@ -837,10 +837,10 @@
         <v>150</v>
       </c>
       <c r="D20">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E20">
-        <v>18</v>
+        <v>10.5</v>
       </c>
       <c r="F20">
         <v>0.5</v>
@@ -863,13 +863,13 @@
         <v>8</v>
       </c>
       <c r="E21">
-        <v>18</v>
+        <v>8.5</v>
       </c>
       <c r="F21">
         <v>0.5</v>
       </c>
       <c r="G21">
-        <v>-1</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -883,10 +883,10 @@
         <v>110</v>
       </c>
       <c r="D22">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E22">
-        <v>18</v>
+        <v>12.5</v>
       </c>
       <c r="F22">
         <v>0.5</v>
@@ -906,10 +906,10 @@
         <v>120</v>
       </c>
       <c r="D23">
-        <v>8</v>
+        <v>12.5</v>
       </c>
       <c r="E23">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F23">
         <v>0.5</v>
@@ -929,16 +929,16 @@
         <v>140</v>
       </c>
       <c r="D24">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E24">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="F24">
         <v>0.5</v>
       </c>
       <c r="G24">
-        <v>-1</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -952,7 +952,7 @@
         <v>40</v>
       </c>
       <c r="D25">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E25">
         <v>18</v>
@@ -975,10 +975,10 @@
         <v>130</v>
       </c>
       <c r="D26">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E26">
-        <v>18</v>
+        <v>14.5</v>
       </c>
       <c r="F26">
         <v>0.5</v>
@@ -998,16 +998,16 @@
         <v>90</v>
       </c>
       <c r="D27">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E27">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F27">
         <v>0.5</v>
       </c>
       <c r="G27">
-        <v>-1</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
@@ -1021,16 +1021,16 @@
         <v>80</v>
       </c>
       <c r="D28">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E28">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F28">
         <v>0.5</v>
       </c>
       <c r="G28">
-        <v>-1</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
@@ -1044,10 +1044,10 @@
         <v>180</v>
       </c>
       <c r="D29">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E29">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="F29">
         <v>0.5</v>
@@ -1067,10 +1067,10 @@
         <v>30</v>
       </c>
       <c r="D30">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E30">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F30">
         <v>0.5</v>
@@ -1090,7 +1090,7 @@
         <v>200</v>
       </c>
       <c r="D31">
-        <v>8</v>
+        <v>17.5</v>
       </c>
       <c r="E31">
         <v>18</v>
@@ -1100,6 +1100,190 @@
       </c>
       <c r="G31">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>50</v>
+      </c>
+      <c r="C32">
+        <v>50</v>
+      </c>
+      <c r="D32">
+        <v>8</v>
+      </c>
+      <c r="E32">
+        <v>18</v>
+      </c>
+      <c r="F32">
+        <v>0.5</v>
+      </c>
+      <c r="G32">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>100</v>
+      </c>
+      <c r="C33">
+        <v>50</v>
+      </c>
+      <c r="D33">
+        <v>8</v>
+      </c>
+      <c r="E33">
+        <v>18</v>
+      </c>
+      <c r="F33">
+        <v>0.5</v>
+      </c>
+      <c r="G33">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>150</v>
+      </c>
+      <c r="C34">
+        <v>50</v>
+      </c>
+      <c r="D34">
+        <v>8</v>
+      </c>
+      <c r="E34">
+        <v>18</v>
+      </c>
+      <c r="F34">
+        <v>0.5</v>
+      </c>
+      <c r="G34">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>50</v>
+      </c>
+      <c r="C35">
+        <v>100</v>
+      </c>
+      <c r="D35">
+        <v>8</v>
+      </c>
+      <c r="E35">
+        <v>18</v>
+      </c>
+      <c r="F35">
+        <v>0.5</v>
+      </c>
+      <c r="G35">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>50</v>
+      </c>
+      <c r="C36">
+        <v>150</v>
+      </c>
+      <c r="D36">
+        <v>8</v>
+      </c>
+      <c r="E36">
+        <v>18</v>
+      </c>
+      <c r="F36">
+        <v>0.5</v>
+      </c>
+      <c r="G36">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>150</v>
+      </c>
+      <c r="C37">
+        <v>100</v>
+      </c>
+      <c r="D37">
+        <v>8</v>
+      </c>
+      <c r="E37">
+        <v>18</v>
+      </c>
+      <c r="F37">
+        <v>0.5</v>
+      </c>
+      <c r="G37">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>150</v>
+      </c>
+      <c r="C38">
+        <v>150</v>
+      </c>
+      <c r="D38">
+        <v>8</v>
+      </c>
+      <c r="E38">
+        <v>18</v>
+      </c>
+      <c r="F38">
+        <v>0.5</v>
+      </c>
+      <c r="G38">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>100</v>
+      </c>
+      <c r="C39">
+        <v>150</v>
+      </c>
+      <c r="D39">
+        <v>8</v>
+      </c>
+      <c r="E39">
+        <v>18</v>
+      </c>
+      <c r="F39">
+        <v>0.5</v>
+      </c>
+      <c r="G39">
+        <v>-2</v>
       </c>
     </row>
   </sheetData>
